--- a/projects/rokig/input/Scenario_UnitUser.xlsx
+++ b/projects/rokig/input/Scenario_UnitUser.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C0BAC-18DF-2047-AEC7-732EA821B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D97374-907B-6447-AF6A-72396AF5A139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="4220" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
